--- a/html/data/Hoa/BURNLEY/Stadium.xlsx
+++ b/html/data/Hoa/BURNLEY/Stadium.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -32,19 +32,43 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>TURF MOOR</t>
+  </si>
+  <si>
+    <t>Burnley Football Club Turf Moor Harry Potts Way Burnley Lancashire BB10 4BX</t>
+  </si>
+  <si>
+    <t>103.51m x 65.01m</t>
+  </si>
+  <si>
+    <t>123.51m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF162B48"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,9 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,15 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -426,7 +457,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1883</v>
+      </c>
+      <c r="D2" s="4">
+        <v>21401</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>